--- a/tests/202205/USAPA-202205.xlsx
+++ b/tests/202205/USAPA-202205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\CodeHagen\GitHub\TMetric2Excel\tests\202205\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FWHagen\TMetric2Excel\tests\202205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E40E84-D4BA-498E-B906-3821062D38B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C1AE1F-2268-4EC5-8918-813D6A4DF74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1335" windowWidth="24060" windowHeight="13590" xr2:uid="{1BAF69D4-77D3-471E-A68D-BDBEB3AE96D3}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{50B379B4-9193-46B8-BCF5-152ED932FE14}"/>
   </bookViews>
   <sheets>
     <sheet name="202205" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2A27D5-0DEF-4872-8417-FB759AF5C17E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99D4BA9-3508-47FF-BD82-0B661B3285FF}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -892,6 +892,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/202205/USAPA-202205.xlsx
+++ b/tests/202205/USAPA-202205.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\FWHagen\TMetric2Excel\tests\202205\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3C1AE1F-2268-4EC5-8918-813D6A4DF74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D50A982D-5D92-4710-8406-4D68EBE03A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11325" xr2:uid="{50B379B4-9193-46B8-BCF5-152ED932FE14}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11265" xr2:uid="{BF178934-6F49-43F4-8975-D76B93C12610}"/>
   </bookViews>
   <sheets>
     <sheet name="202205" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -131,18 +132,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,15 +467,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99D4BA9-3508-47FF-BD82-0B661B3285FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1534F2BB-9BCD-4560-AB8B-683D0BF68F0F}">
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -474,7 +486,7 @@
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -494,10 +506,10 @@
       <c r="A3" s="2">
         <v>44683</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
         <f>SUM(B3:B3)</f>
         <v>0</v>
       </c>
@@ -506,10 +518,10 @@
       <c r="A4" s="2">
         <v>44684</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <f>SUM(B4:B4)</f>
         <v>1</v>
       </c>
@@ -518,10 +530,10 @@
       <c r="A5" s="2">
         <v>44685</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
         <f>SUM(B5:B5)</f>
         <v>0</v>
       </c>
@@ -530,10 +542,10 @@
       <c r="A6" s="2">
         <v>44686</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
         <f>SUM(B6:B6)</f>
         <v>0</v>
       </c>
@@ -542,10 +554,10 @@
       <c r="A7" s="2">
         <v>44687</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>1.5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <f>SUM(B7:B7)</f>
         <v>1.5</v>
       </c>
@@ -578,10 +590,10 @@
       <c r="A10" s="2">
         <v>44690</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
         <f>SUM(B10:B10)</f>
         <v>0</v>
       </c>
@@ -590,10 +602,10 @@
       <c r="A11" s="2">
         <v>44691</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <f>SUM(B11:B11)</f>
         <v>3</v>
       </c>
@@ -602,10 +614,10 @@
       <c r="A12" s="2">
         <v>44692</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <f>SUM(B12:B12)</f>
         <v>3</v>
       </c>
@@ -614,10 +626,10 @@
       <c r="A13" s="2">
         <v>44693</v>
       </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
         <f>SUM(B13:B13)</f>
         <v>0</v>
       </c>
@@ -626,10 +638,10 @@
       <c r="A14" s="2">
         <v>44694</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <f>SUM(B14:B14)</f>
         <v>0</v>
       </c>
@@ -662,10 +674,10 @@
       <c r="A17" s="2">
         <v>44697</v>
       </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
         <f>SUM(B17:B17)</f>
         <v>0</v>
       </c>
@@ -674,10 +686,10 @@
       <c r="A18" s="2">
         <v>44698</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
         <f>SUM(B18:B18)</f>
         <v>0</v>
       </c>
@@ -686,10 +698,10 @@
       <c r="A19" s="2">
         <v>44699</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>4</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <f>SUM(B19:B19)</f>
         <v>4</v>
       </c>
@@ -698,10 +710,10 @@
       <c r="A20" s="2">
         <v>44700</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
         <f>SUM(B20:B20)</f>
         <v>0</v>
       </c>
@@ -710,10 +722,10 @@
       <c r="A21" s="2">
         <v>44701</v>
       </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
         <f>SUM(B21:B21)</f>
         <v>0</v>
       </c>
@@ -746,10 +758,10 @@
       <c r="A24" s="2">
         <v>44704</v>
       </c>
-      <c r="B24" s="4">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
         <f>SUM(B24:B24)</f>
         <v>0</v>
       </c>
@@ -758,10 +770,10 @@
       <c r="A25" s="2">
         <v>44705</v>
       </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
         <f>SUM(B25:B25)</f>
         <v>0</v>
       </c>
@@ -770,10 +782,10 @@
       <c r="A26" s="2">
         <v>44706</v>
       </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
         <f>SUM(B26:B26)</f>
         <v>0</v>
       </c>
@@ -782,10 +794,10 @@
       <c r="A27" s="2">
         <v>44707</v>
       </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
         <f>SUM(B27:B27)</f>
         <v>0</v>
       </c>
@@ -794,10 +806,10 @@
       <c r="A28" s="2">
         <v>44708</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
         <f>SUM(B28:B28)</f>
         <v>0</v>
       </c>
@@ -830,10 +842,10 @@
       <c r="A31" s="2">
         <v>44711</v>
       </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
         <f>SUM(B31:B31)</f>
         <v>0</v>
       </c>
@@ -851,11 +863,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4">
+      <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
         <v>12.5</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="12">
         <f>SUM(C2:C32)</f>
         <v>12.5</v>
       </c>
@@ -866,32 +878,32 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>